--- a/data/final_repeat_result.xlsx
+++ b/data/final_repeat_result.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\Final\HRC_taskalloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA37CD8-1E54-4BF5-AFF7-5813006E2F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A9B5F-5129-41E1-B0E1-476A1E9B7574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="10275" windowWidth="12150" windowHeight="11520" xr2:uid="{90F687E6-DB66-4A21-AE3B-5AD38CF97811}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="16440" xr2:uid="{90F687E6-DB66-4A21-AE3B-5AD38CF97811}"/>
   </bookViews>
   <sheets>
     <sheet name="OHT" sheetId="1" r:id="rId1"/>
+    <sheet name="JOB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>OHT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1, 0, 1, 2, 1, 2, 1, 0, 0, 1, 0, 1, 0, 1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[9, 10, 4, 3, 12, 7, 13, 1, 0, 6, 8, 11, 5, 2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0, 1, 3, 4, 10, 9, 6, 2, 7, 8, 5, 11, 12, 13]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[9, 10, 3, 4, 13, 0, 1, 8, 7, 6, 11, 12, 2, 5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +85,88 @@
   </si>
   <si>
     <t>[0, 1, 1, 2, 0, 2, 1, 1, 0, 0, 1, 1, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 5, 2, 3, 4, 6, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 6, 2, 1, 5, 3, 0]</t>
+  </si>
+  <si>
+    <t>[2, 5, 4, 3, 0, 6, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 0, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 2, 3, 4, 1, 6, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6, 4, 3, 1, 0, 2, 5]</t>
+  </si>
+  <si>
+    <t>[3, 4, 2, 0, 5, 1, 6]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 5, 0, 4, 6]</t>
+  </si>
+  <si>
+    <t>[5, 0, 1, 2, 6, 3, 4]</t>
+  </si>
+  <si>
+    <t>[2, 0, 1, 4, 6, 5, 3]</t>
+  </si>
+  <si>
+    <t>[5, 1, 0, 6, 4, 2, 3]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 2, 0, 2, 1, 1, 0, 0, 1, 0, 0, 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10, 9, 3, 4, 13, 0, 1, 7, 11, 5, 12, 2, 8, 6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9, 10, 4, 3, 13, 12, 5, 7, 1, 0, 6, 8, 11, 2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9, 10, 4, 3, 7, 0, 1, 12, 2, 8, 5, 6, 13, 11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 1, 1, 2, 1, 2, 1, 0, 0, 0, 1, 1, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9, 10, 8, 4, 3, 1, 0, 11, 12, 7, 13, 5, 2, 6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單手任務模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳統模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ave.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,9 +235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +275,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F672BEE-F617-49B9-B788-D7A7607BCD06}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G13" sqref="G13:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -468,86 +543,343 @@
     <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3751</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3750</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3878</v>
+        <v>3759</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3774</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3759</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3850</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3755</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3757</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3750</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3756</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.5036</v>
+      </c>
+      <c r="H13">
+        <v>22.946400000000001</v>
+      </c>
+      <c r="I13">
+        <f>G13*0.0036</f>
+        <v>4.8612960000000004E-2</v>
+      </c>
+      <c r="J13">
+        <f>H13*0.0036</f>
+        <v>8.2607040000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>13.5</v>
+      </c>
+      <c r="H14">
+        <v>22.946400000000001</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:J22" si="0">G14*0.0036</f>
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>8.2607040000000007E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>13.532399999999999</v>
+      </c>
+      <c r="H15">
+        <v>22.946400000000001</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>4.8716639999999999E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>8.2607040000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>13.586399999999999</v>
+      </c>
+      <c r="H16">
+        <v>22.946400000000001</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>4.8911039999999996E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>8.2607040000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>13.532399999999999</v>
+      </c>
+      <c r="H17">
+        <v>22.946400000000001</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>4.8716639999999999E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>8.2607040000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>13.86</v>
+      </c>
+      <c r="H18">
+        <v>22.946400000000001</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>4.9895999999999996E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>8.2607040000000007E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>13.517999999999999</v>
+      </c>
+      <c r="H19">
+        <v>22.946400000000001</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>4.8664799999999994E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>8.2607040000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>13.5252</v>
+      </c>
+      <c r="H20">
+        <v>22.946400000000001</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>4.869072E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>8.2607040000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>13.5</v>
+      </c>
+      <c r="H21">
+        <v>22.946400000000001</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>8.2607040000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>13.521599999999999</v>
+      </c>
+      <c r="H22">
+        <v>22.946400000000001</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>4.8677759999999994E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>8.2607040000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <f>MIN(G13:G22)</f>
+        <v>13.5</v>
+      </c>
+      <c r="H23">
+        <f>MIN(H13:H22)</f>
+        <v>22.946400000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24">
+        <f>AVERAGE(G13:G22)</f>
+        <v>13.55796</v>
+      </c>
+      <c r="H24">
+        <f>AVERAGE(H13:H22)</f>
+        <v>22.946400000000004</v>
       </c>
     </row>
   </sheetData>
@@ -555,4 +887,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868780B9-DC35-4572-AED1-0FB4C6B9184C}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6374</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6374</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6374</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6374</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6374</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6374</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6374</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6374</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6374</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6374</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>